--- a/data/trans_orig/Q64D_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q64D_R-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de minutos que tarda en desplazarse para ir a trabajar</t>
+          <t>Número medio de minutos que utilizan en todos sus desplazamientos para ir a trabajar</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,27; 14,52</t>
+          <t>7,24; 14,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,12; 16,11</t>
+          <t>5,13; 16,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,64; 11,49</t>
+          <t>3,58; 11,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,48; 25,85</t>
+          <t>7,68; 24,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 9,63</t>
+          <t>3,97; 9,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,33; 15,44</t>
+          <t>6,35; 14,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,15; 16,37</t>
+          <t>6,23; 16,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,55; 28,71</t>
+          <t>9,76; 28,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,24; 10,81</t>
+          <t>6,4; 10,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,35; 12,39</t>
+          <t>6,44; 12,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,7; 11,92</t>
+          <t>5,6; 11,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,72; 24,13</t>
+          <t>10,21; 23,5</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,31; 15,2</t>
+          <t>8,24; 15,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,88; 13,99</t>
+          <t>7,98; 13,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,0; 13,02</t>
+          <t>7,66; 12,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,78; 19,96</t>
+          <t>11,67; 19,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,1; 13,1</t>
+          <t>8,02; 12,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,49; 12,33</t>
+          <t>6,36; 12,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,11; 14,29</t>
+          <t>8,27; 14,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,84; 18,74</t>
+          <t>6,35; 18,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,77; 13,82</t>
+          <t>8,69; 13,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,91; 11,93</t>
+          <t>7,81; 11,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,69; 12,55</t>
+          <t>8,58; 12,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,62; 17,72</t>
+          <t>9,77; 17,79</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,8; 12,37</t>
+          <t>7,87; 12,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 9,04</t>
+          <t>5,38; 8,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,74; 16,56</t>
+          <t>9,78; 16,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,22; 24,66</t>
+          <t>17,08; 24,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,39; 10,61</t>
+          <t>6,27; 10,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 10,5</t>
+          <t>6,07; 10,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,62; 13,31</t>
+          <t>7,57; 13,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,62; 19,94</t>
+          <t>13,72; 19,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 11,12</t>
+          <t>7,71; 11,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,27; 8,93</t>
+          <t>6,23; 9,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,59; 13,96</t>
+          <t>9,5; 14,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,35; 21,62</t>
+          <t>16,27; 21,56</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 13,65</t>
+          <t>7,84; 13,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,42; 13,04</t>
+          <t>7,38; 13,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,63; 11,95</t>
+          <t>6,51; 12,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 21,31</t>
+          <t>5,27; 21,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,06; 12,84</t>
+          <t>6,13; 12,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 12,63</t>
+          <t>6,39; 12,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,69; 13,63</t>
+          <t>7,38; 13,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,51; 23,07</t>
+          <t>14,29; 22,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,08; 12,43</t>
+          <t>7,89; 12,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,64; 11,66</t>
+          <t>7,61; 11,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,58; 11,9</t>
+          <t>7,7; 11,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 19,63</t>
+          <t>7,28; 19,86</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,63; 9,97</t>
+          <t>4,67; 9,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,34; 15,98</t>
+          <t>5,42; 16,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,29; 11,18</t>
+          <t>5,14; 11,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,66; 23,66</t>
+          <t>14,83; 23,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,27; 13,73</t>
+          <t>3,12; 14,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 11,0</t>
+          <t>3,38; 11,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,83; 23,94</t>
+          <t>6,82; 21,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,03; 19,9</t>
+          <t>12,44; 20,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,86; 9,74</t>
+          <t>4,78; 9,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 13,27</t>
+          <t>5,43; 12,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,75; 14,0</t>
+          <t>6,79; 13,93</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,29; 20,73</t>
+          <t>14,52; 20,28</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1434,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,13</t>
+          <t>0,0; 6,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,39; 28,43</t>
+          <t>2,62; 31,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,85; 8,29</t>
+          <t>0,91; 8,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,63; 16,63</t>
+          <t>3,48; 16,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,18</t>
+          <t>0,9; 6,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,95; 19,83</t>
+          <t>4,62; 17,78</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,81; 11,6</t>
+          <t>8,71; 11,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,66; 10,4</t>
+          <t>7,65; 10,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,71; 11,74</t>
+          <t>8,55; 11,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,75; 19,25</t>
+          <t>9,74; 19,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,32; 9,86</t>
+          <t>7,39; 9,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,17; 10,01</t>
+          <t>7,25; 9,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,88; 12,06</t>
+          <t>8,85; 12,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,07; 18,07</t>
+          <t>13,08; 17,92</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,59; 10,51</t>
+          <t>8,51; 10,64</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,86; 9,76</t>
+          <t>7,72; 9,69</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>9,01; 11,26</t>
+          <t>9,23; 11,32</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,01; 17,92</t>
+          <t>11,73; 17,89</t>
         </is>
       </c>
     </row>
